--- a/Practica3/DATA_LAB.xlsx
+++ b/Practica3/DATA_LAB.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3A89C2-E4E8-4FCA-8060-C99DFF139B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC8015-DB43-4D96-BDC8-5D5955EDE1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,10 +213,10 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,27 +537,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="J1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -656,10 +656,10 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="N3" s="8">
-        <v>1.2200000000000001E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="O3" s="8">
-        <v>1.2</v>
+        <v>3.056E-4</v>
       </c>
       <c r="P3" s="9">
         <f>20*(LOG(ABS((M3/L3)/200),10))</f>
@@ -667,9 +667,9 @@
       </c>
       <c r="Q3" s="9">
         <f>(O3*360)/N3</f>
-        <v>35409.836065573771</v>
-      </c>
-      <c r="R3" s="23"/>
+        <v>55.008000000000003</v>
+      </c>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
@@ -714,10 +714,10 @@
         <v>6.5199999999999994E-2</v>
       </c>
       <c r="N4" s="8">
-        <v>9.2E-6</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O4" s="8">
-        <v>1</v>
+        <v>1.333E-3</v>
       </c>
       <c r="P4" s="9">
         <f>20*(LOG(ABS((M4/L4)/200),10))</f>
@@ -725,7 +725,7 @@
       </c>
       <c r="Q4" s="9">
         <f>(O4*360)/N4</f>
-        <v>39130434.782608695</v>
+        <v>59.984999999999992</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -771,10 +771,10 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="N5" s="8">
-        <v>9.5E-4</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="O5" s="8">
-        <v>1.7000000000000001E-4</v>
+        <v>1.8940000000000001E-3</v>
       </c>
       <c r="P5" s="9">
         <f>20*(LOG(ABS((M5/L5)/200),10))</f>
@@ -782,7 +782,7 @@
       </c>
       <c r="Q5" s="9">
         <f>(O5*360)/N5</f>
-        <v>64.421052631578945</v>
+        <v>61.985454545454552</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -828,10 +828,10 @@
         <v>0.67200000000000004</v>
       </c>
       <c r="N6" s="8">
-        <v>7.2000000000000005E-4</v>
+        <v>0.01</v>
       </c>
       <c r="O6" s="8">
-        <v>1.3999999999999999E-4</v>
+        <v>1.5280000000000001E-3</v>
       </c>
       <c r="P6" s="9">
         <f>20*(LOG(ABS((M6/L6)/200),10))</f>
@@ -839,7 +839,7 @@
       </c>
       <c r="Q6" s="9">
         <f>(O6*360)/N6</f>
-        <v>69.999999999999986</v>
+        <v>55.008000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -888,7 +888,7 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="O7" s="8">
-        <v>8.0000000000000007E-5</v>
+        <v>7.6000000000000004E-5</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" ref="P7:P12" si="6">20*(LOG(ABS((M7/L7)/200),10))</f>
@@ -896,7 +896,7 @@
       </c>
       <c r="Q7" s="9">
         <f t="shared" ref="Q7:Q12" si="7">(O7*360)/N7</f>
-        <v>52.363636363636367</v>
+        <v>49.74545454545455</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>4.3600000000000003E-4</v>
       </c>
       <c r="O8" s="8">
-        <v>5.5999999999999999E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="6"/>
@@ -955,7 +955,7 @@
       </c>
       <c r="Q8" s="9">
         <f t="shared" si="7"/>
-        <v>46.238532110091739</v>
+        <v>40.458715596330272</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1065,7 +1065,7 @@
         <v>1.4320000000000001E-4</v>
       </c>
       <c r="O10" s="8">
-        <v>1.9999999999999999E-6</v>
+        <v>-1.9999999999999999E-6</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" si="6"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="Q10" s="9">
         <f t="shared" si="7"/>
-        <v>5.0279329608938541</v>
+        <v>-5.0279329608938541</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1119,10 +1119,10 @@
         <v>0.91200000000000003</v>
       </c>
       <c r="N11" s="8">
-        <v>7.1999999999999995E-2</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="O11" s="8">
-        <v>7.1999999999999997E-6</v>
+        <v>-6.2000000000000003E-5</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="6"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="shared" si="7"/>
-        <v>3.5999999999999997E-2</v>
+        <v>-30.999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1179,7 +1179,7 @@
         <v>4.668E-5</v>
       </c>
       <c r="O12" s="8">
-        <v>6.8000000000000001E-6</v>
+        <v>-6.8000000000000001E-6</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="6"/>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="shared" si="7"/>
-        <v>52.44215938303342</v>
+        <v>-52.44215938303342</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1388,27 +1388,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="J1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
